--- a/資料/ステージ設計.xlsx
+++ b/資料/ステージ設計.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game101\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game101\Desktop\TEAM_B_OPENA\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="5112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="5112" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="機械ステージ" sheetId="1" r:id="rId1"/>
+    <sheet name="地形ステージ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>機械ステージ</t>
     <rPh sb="0" eb="2">
@@ -239,6 +240,42 @@
     <t>ドローン</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ルンバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原木</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫</t>
+    <rPh sb="0" eb="1">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キノコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -553,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,155 +600,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2923,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BX25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BG27" sqref="BG27"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2937,46 +2986,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="2:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="29"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:76" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
       <c r="M4" s="2">
         <v>1</v>
       </c>
@@ -3159,157 +3208,157 @@
       </c>
     </row>
     <row r="5" spans="2:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="6"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="5"/>
       <c r="AH5" s="2">
         <v>1</v>
       </c>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="37"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="35"/>
+      <c r="BB5" s="36"/>
       <c r="BD5" s="2">
         <v>1</v>
       </c>
-      <c r="BE5" s="35"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36"/>
-      <c r="BK5" s="36"/>
-      <c r="BL5" s="36"/>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="36"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="36"/>
-      <c r="BS5" s="36"/>
-      <c r="BT5" s="36"/>
-      <c r="BU5" s="36"/>
-      <c r="BV5" s="36"/>
-      <c r="BW5" s="36"/>
-      <c r="BX5" s="37"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="35"/>
+      <c r="BH5" s="35"/>
+      <c r="BI5" s="35"/>
+      <c r="BJ5" s="35"/>
+      <c r="BK5" s="35"/>
+      <c r="BL5" s="35"/>
+      <c r="BM5" s="35"/>
+      <c r="BN5" s="35"/>
+      <c r="BO5" s="35"/>
+      <c r="BP5" s="35"/>
+      <c r="BQ5" s="35"/>
+      <c r="BR5" s="35"/>
+      <c r="BS5" s="35"/>
+      <c r="BT5" s="35"/>
+      <c r="BU5" s="35"/>
+      <c r="BV5" s="35"/>
+      <c r="BW5" s="35"/>
+      <c r="BX5" s="36"/>
     </row>
     <row r="6" spans="2:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="48"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="2">
         <v>2</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="9"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
       <c r="AH6" s="2">
         <v>2</v>
       </c>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="25"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="26"/>
-      <c r="AZ6" s="25"/>
-      <c r="BA6" s="25"/>
-      <c r="BB6" s="39"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="24"/>
+      <c r="AW6" s="24"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="24"/>
+      <c r="BB6" s="38"/>
       <c r="BD6" s="2">
         <v>2</v>
       </c>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="26"/>
-      <c r="BG6" s="25"/>
-      <c r="BH6" s="25"/>
-      <c r="BI6" s="25"/>
-      <c r="BJ6" s="25"/>
-      <c r="BK6" s="25"/>
-      <c r="BL6" s="25"/>
-      <c r="BM6" s="25"/>
-      <c r="BN6" s="25"/>
-      <c r="BO6" s="25"/>
-      <c r="BP6" s="25"/>
-      <c r="BQ6" s="25"/>
-      <c r="BR6" s="25"/>
-      <c r="BS6" s="25"/>
-      <c r="BT6" s="25"/>
-      <c r="BU6" s="25"/>
-      <c r="BV6" s="26"/>
-      <c r="BW6" s="26"/>
-      <c r="BX6" s="39"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="25"/>
+      <c r="BG6" s="24"/>
+      <c r="BH6" s="24"/>
+      <c r="BI6" s="24"/>
+      <c r="BJ6" s="24"/>
+      <c r="BK6" s="24"/>
+      <c r="BL6" s="24"/>
+      <c r="BM6" s="24"/>
+      <c r="BN6" s="24"/>
+      <c r="BO6" s="24"/>
+      <c r="BP6" s="24"/>
+      <c r="BQ6" s="24"/>
+      <c r="BR6" s="24"/>
+      <c r="BS6" s="24"/>
+      <c r="BT6" s="24"/>
+      <c r="BU6" s="24"/>
+      <c r="BV6" s="25"/>
+      <c r="BW6" s="25"/>
+      <c r="BX6" s="38"/>
     </row>
     <row r="7" spans="2:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="28"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -3319,75 +3368,75 @@
       <c r="L7" s="2">
         <v>3</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="9"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
       <c r="AH7" s="2">
         <v>3</v>
       </c>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="39"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="24"/>
+      <c r="AT7" s="24"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="24"/>
+      <c r="AW7" s="24"/>
+      <c r="AX7" s="24"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="24"/>
+      <c r="BB7" s="38"/>
       <c r="BD7" s="2">
         <v>3</v>
       </c>
-      <c r="BE7" s="38"/>
-      <c r="BF7" s="26"/>
-      <c r="BG7" s="24"/>
-      <c r="BH7" s="24"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="25"/>
-      <c r="BK7" s="25"/>
-      <c r="BL7" s="25"/>
-      <c r="BM7" s="25"/>
-      <c r="BN7" s="25"/>
-      <c r="BO7" s="25"/>
-      <c r="BP7" s="25"/>
-      <c r="BQ7" s="25"/>
-      <c r="BR7" s="25"/>
-      <c r="BS7" s="25"/>
-      <c r="BT7" s="25"/>
-      <c r="BU7" s="24"/>
-      <c r="BV7" s="24"/>
-      <c r="BW7" s="25"/>
-      <c r="BX7" s="39"/>
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="25"/>
+      <c r="BG7" s="23"/>
+      <c r="BH7" s="23"/>
+      <c r="BI7" s="24"/>
+      <c r="BJ7" s="24"/>
+      <c r="BK7" s="24"/>
+      <c r="BL7" s="24"/>
+      <c r="BM7" s="24"/>
+      <c r="BN7" s="24"/>
+      <c r="BO7" s="24"/>
+      <c r="BP7" s="24"/>
+      <c r="BQ7" s="24"/>
+      <c r="BR7" s="24"/>
+      <c r="BS7" s="24"/>
+      <c r="BT7" s="24"/>
+      <c r="BU7" s="23"/>
+      <c r="BV7" s="23"/>
+      <c r="BW7" s="24"/>
+      <c r="BX7" s="38"/>
     </row>
     <row r="8" spans="2:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="44"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3397,75 +3446,75 @@
       <c r="L8" s="2">
         <v>4</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="9"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
       <c r="AH8" s="2">
         <v>4</v>
       </c>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="46"/>
-      <c r="AV8" s="25"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="24"/>
-      <c r="BA8" s="25"/>
-      <c r="BB8" s="39"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="24"/>
+      <c r="AT8" s="24"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="24"/>
+      <c r="AW8" s="24"/>
+      <c r="AX8" s="24"/>
+      <c r="AY8" s="24"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="24"/>
+      <c r="BB8" s="38"/>
       <c r="BD8" s="2">
         <v>4</v>
       </c>
-      <c r="BE8" s="38"/>
-      <c r="BF8" s="25"/>
-      <c r="BG8" s="24"/>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="25"/>
-      <c r="BJ8" s="25"/>
-      <c r="BK8" s="25"/>
-      <c r="BL8" s="26"/>
-      <c r="BM8" s="25"/>
-      <c r="BN8" s="25"/>
-      <c r="BO8" s="25"/>
-      <c r="BP8" s="25"/>
-      <c r="BQ8" s="25"/>
-      <c r="BR8" s="25"/>
-      <c r="BS8" s="25"/>
-      <c r="BT8" s="25"/>
-      <c r="BU8" s="25"/>
-      <c r="BV8" s="24"/>
-      <c r="BW8" s="25"/>
-      <c r="BX8" s="39"/>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="24"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="24"/>
+      <c r="BI8" s="24"/>
+      <c r="BJ8" s="24"/>
+      <c r="BK8" s="24"/>
+      <c r="BL8" s="25"/>
+      <c r="BM8" s="24"/>
+      <c r="BN8" s="24"/>
+      <c r="BO8" s="24"/>
+      <c r="BP8" s="24"/>
+      <c r="BQ8" s="24"/>
+      <c r="BR8" s="24"/>
+      <c r="BS8" s="24"/>
+      <c r="BT8" s="24"/>
+      <c r="BU8" s="24"/>
+      <c r="BV8" s="23"/>
+      <c r="BW8" s="24"/>
+      <c r="BX8" s="38"/>
     </row>
     <row r="9" spans="2:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="47"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
@@ -3475,72 +3524,72 @@
       <c r="L9" s="2">
         <v>5</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="9"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
       <c r="AH9" s="2">
         <v>5</v>
       </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="26"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="39"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="38"/>
       <c r="BD9" s="2">
         <v>5</v>
       </c>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="25"/>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25"/>
-      <c r="BK9" s="26"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="24"/>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="26"/>
-      <c r="BR9" s="25"/>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25"/>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="39"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="24"/>
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24"/>
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="23"/>
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="24"/>
+      <c r="BS9" s="24"/>
+      <c r="BT9" s="24"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="24"/>
+      <c r="BW9" s="24"/>
+      <c r="BX9" s="38"/>
     </row>
     <row r="10" spans="2:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="2" t="s">
@@ -3549,1144 +3598,1146 @@
       <c r="L10" s="2">
         <v>6</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="31"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="30"/>
       <c r="AH10" s="2">
         <v>6</v>
       </c>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="25"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="25"/>
-      <c r="BB10" s="39"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="24"/>
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="24"/>
+      <c r="AV10" s="24"/>
+      <c r="AW10" s="24"/>
+      <c r="AX10" s="24"/>
+      <c r="AY10" s="24"/>
+      <c r="AZ10" s="24"/>
+      <c r="BA10" s="24"/>
+      <c r="BB10" s="38"/>
       <c r="BD10" s="2">
         <v>6</v>
       </c>
-      <c r="BE10" s="38"/>
-      <c r="BF10" s="25"/>
-      <c r="BG10" s="25"/>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="25"/>
-      <c r="BJ10" s="26"/>
-      <c r="BK10" s="25"/>
-      <c r="BL10" s="25"/>
-      <c r="BM10" s="25"/>
-      <c r="BN10" s="25"/>
-      <c r="BO10" s="25"/>
-      <c r="BP10" s="25"/>
-      <c r="BQ10" s="26"/>
-      <c r="BR10" s="46"/>
-      <c r="BS10" s="46"/>
-      <c r="BT10" s="26"/>
-      <c r="BU10" s="25"/>
-      <c r="BV10" s="25"/>
-      <c r="BW10" s="25"/>
-      <c r="BX10" s="39"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="24"/>
+      <c r="BG10" s="24"/>
+      <c r="BH10" s="24"/>
+      <c r="BI10" s="24"/>
+      <c r="BJ10" s="25"/>
+      <c r="BK10" s="24"/>
+      <c r="BL10" s="24"/>
+      <c r="BM10" s="24"/>
+      <c r="BN10" s="24"/>
+      <c r="BO10" s="24"/>
+      <c r="BP10" s="24"/>
+      <c r="BQ10" s="25"/>
+      <c r="BR10" s="45"/>
+      <c r="BS10" s="45"/>
+      <c r="BT10" s="25"/>
+      <c r="BU10" s="24"/>
+      <c r="BV10" s="24"/>
+      <c r="BW10" s="24"/>
+      <c r="BX10" s="38"/>
     </row>
     <row r="11" spans="2:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="L11" s="2">
         <v>7</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="31"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="30"/>
       <c r="AH11" s="2">
         <v>7</v>
       </c>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="39"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="24"/>
+      <c r="AV11" s="24"/>
+      <c r="AW11" s="24"/>
+      <c r="AX11" s="24"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="24"/>
+      <c r="BA11" s="24"/>
+      <c r="BB11" s="38"/>
       <c r="BD11" s="2">
         <v>7</v>
       </c>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="25"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="25"/>
-      <c r="BJ11" s="25"/>
-      <c r="BK11" s="25"/>
-      <c r="BL11" s="25"/>
-      <c r="BM11" s="25"/>
-      <c r="BN11" s="25"/>
-      <c r="BO11" s="25"/>
-      <c r="BP11" s="25"/>
-      <c r="BQ11" s="25"/>
-      <c r="BR11" s="25"/>
-      <c r="BS11" s="25"/>
-      <c r="BT11" s="25"/>
-      <c r="BU11" s="25"/>
-      <c r="BV11" s="25"/>
-      <c r="BW11" s="25"/>
-      <c r="BX11" s="39"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="24"/>
+      <c r="BG11" s="24"/>
+      <c r="BH11" s="24"/>
+      <c r="BI11" s="24"/>
+      <c r="BJ11" s="24"/>
+      <c r="BK11" s="24"/>
+      <c r="BL11" s="24"/>
+      <c r="BM11" s="24"/>
+      <c r="BN11" s="24"/>
+      <c r="BO11" s="24"/>
+      <c r="BP11" s="24"/>
+      <c r="BQ11" s="24"/>
+      <c r="BR11" s="24"/>
+      <c r="BS11" s="24"/>
+      <c r="BT11" s="24"/>
+      <c r="BU11" s="24"/>
+      <c r="BV11" s="24"/>
+      <c r="BW11" s="24"/>
+      <c r="BX11" s="38"/>
     </row>
     <row r="12" spans="2:76" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="L12" s="2">
         <v>8</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="31"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="30"/>
       <c r="AH12" s="2">
         <v>8</v>
       </c>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="25"/>
-      <c r="AX12" s="25"/>
-      <c r="AY12" s="25"/>
-      <c r="AZ12" s="25"/>
-      <c r="BA12" s="23"/>
-      <c r="BB12" s="31"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="24"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="24"/>
+      <c r="AX12" s="24"/>
+      <c r="AY12" s="24"/>
+      <c r="AZ12" s="24"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="30"/>
       <c r="BD12" s="2">
         <v>8</v>
       </c>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="25"/>
-      <c r="BG12" s="25"/>
-      <c r="BH12" s="25"/>
-      <c r="BI12" s="25"/>
-      <c r="BJ12" s="25"/>
-      <c r="BK12" s="25"/>
-      <c r="BL12" s="25"/>
-      <c r="BM12" s="25"/>
-      <c r="BN12" s="25"/>
-      <c r="BO12" s="25"/>
-      <c r="BP12" s="25"/>
-      <c r="BQ12" s="25"/>
-      <c r="BR12" s="25"/>
-      <c r="BS12" s="25"/>
-      <c r="BT12" s="25"/>
-      <c r="BU12" s="25"/>
-      <c r="BV12" s="25"/>
-      <c r="BW12" s="25"/>
-      <c r="BX12" s="39"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="24"/>
+      <c r="BG12" s="24"/>
+      <c r="BH12" s="24"/>
+      <c r="BI12" s="24"/>
+      <c r="BJ12" s="24"/>
+      <c r="BK12" s="24"/>
+      <c r="BL12" s="24"/>
+      <c r="BM12" s="24"/>
+      <c r="BN12" s="24"/>
+      <c r="BO12" s="24"/>
+      <c r="BP12" s="24"/>
+      <c r="BQ12" s="24"/>
+      <c r="BR12" s="24"/>
+      <c r="BS12" s="24"/>
+      <c r="BT12" s="24"/>
+      <c r="BU12" s="24"/>
+      <c r="BV12" s="24"/>
+      <c r="BW12" s="24"/>
+      <c r="BX12" s="38"/>
     </row>
     <row r="13" spans="2:76" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="L13" s="2">
         <v>9</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="22" t="s">
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="V13" s="16"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="22" t="s">
+      <c r="V13" s="15"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="9"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="8"/>
       <c r="AH13" s="2">
         <v>9</v>
       </c>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="40"/>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="25"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="25"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="25"/>
-      <c r="BA13" s="25"/>
-      <c r="BB13" s="31"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24"/>
+      <c r="BA13" s="24"/>
+      <c r="BB13" s="30"/>
       <c r="BD13" s="2">
         <v>9</v>
       </c>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="25"/>
-      <c r="BG13" s="25"/>
-      <c r="BH13" s="25"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="25"/>
-      <c r="BL13" s="25"/>
-      <c r="BM13" s="45"/>
-      <c r="BN13" s="40"/>
-      <c r="BO13" s="40"/>
-      <c r="BP13" s="45"/>
-      <c r="BQ13" s="25"/>
-      <c r="BR13" s="25"/>
-      <c r="BS13" s="25"/>
-      <c r="BT13" s="25"/>
-      <c r="BU13" s="25"/>
-      <c r="BV13" s="25"/>
-      <c r="BW13" s="25"/>
-      <c r="BX13" s="39"/>
+      <c r="BE13" s="37"/>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="24"/>
+      <c r="BH13" s="24"/>
+      <c r="BI13" s="24"/>
+      <c r="BJ13" s="25"/>
+      <c r="BK13" s="24"/>
+      <c r="BL13" s="24"/>
+      <c r="BM13" s="44"/>
+      <c r="BN13" s="39"/>
+      <c r="BO13" s="39"/>
+      <c r="BP13" s="44"/>
+      <c r="BQ13" s="24"/>
+      <c r="BR13" s="24"/>
+      <c r="BS13" s="24"/>
+      <c r="BT13" s="24"/>
+      <c r="BU13" s="24"/>
+      <c r="BV13" s="24"/>
+      <c r="BW13" s="24"/>
+      <c r="BX13" s="38"/>
     </row>
     <row r="14" spans="2:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="L14" s="2">
         <v>10</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="20"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="19"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="9"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="8"/>
       <c r="AH14" s="2">
         <v>10</v>
       </c>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="40"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="24"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="39"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="24"/>
+      <c r="AW14" s="24"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="24"/>
+      <c r="BA14" s="24"/>
+      <c r="BB14" s="38"/>
       <c r="BD14" s="2">
         <v>10</v>
       </c>
-      <c r="BE14" s="38"/>
-      <c r="BF14" s="25"/>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="24"/>
-      <c r="BJ14" s="26"/>
-      <c r="BK14" s="25"/>
-      <c r="BL14" s="25"/>
-      <c r="BM14" s="40"/>
-      <c r="BN14" s="49"/>
-      <c r="BO14" s="49"/>
-      <c r="BP14" s="40"/>
-      <c r="BQ14" s="25"/>
-      <c r="BR14" s="25"/>
-      <c r="BS14" s="25"/>
-      <c r="BT14" s="24"/>
-      <c r="BU14" s="25"/>
-      <c r="BV14" s="25"/>
-      <c r="BW14" s="25"/>
-      <c r="BX14" s="39"/>
+      <c r="BE14" s="37"/>
+      <c r="BF14" s="24"/>
+      <c r="BG14" s="24"/>
+      <c r="BH14" s="24"/>
+      <c r="BI14" s="23"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="24"/>
+      <c r="BL14" s="24"/>
+      <c r="BM14" s="39"/>
+      <c r="BN14" s="48"/>
+      <c r="BO14" s="48"/>
+      <c r="BP14" s="39"/>
+      <c r="BQ14" s="24"/>
+      <c r="BR14" s="24"/>
+      <c r="BS14" s="24"/>
+      <c r="BT14" s="23"/>
+      <c r="BU14" s="24"/>
+      <c r="BV14" s="24"/>
+      <c r="BW14" s="24"/>
+      <c r="BX14" s="38"/>
     </row>
     <row r="15" spans="2:76" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="2">
         <v>11</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="19"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="18"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="9"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="8"/>
       <c r="AH15" s="2">
         <v>11</v>
       </c>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="40"/>
-      <c r="AR15" s="40"/>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="40"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="39"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="39"/>
+      <c r="AR15" s="39"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="24"/>
+      <c r="AV15" s="24"/>
+      <c r="AW15" s="24"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="24"/>
+      <c r="AZ15" s="24"/>
+      <c r="BA15" s="24"/>
+      <c r="BB15" s="38"/>
       <c r="BD15" s="2">
         <v>11</v>
       </c>
-      <c r="BE15" s="38"/>
-      <c r="BF15" s="25"/>
-      <c r="BG15" s="25"/>
-      <c r="BH15" s="25"/>
-      <c r="BI15" s="24"/>
-      <c r="BJ15" s="25"/>
-      <c r="BK15" s="25"/>
-      <c r="BL15" s="25"/>
-      <c r="BM15" s="40"/>
-      <c r="BN15" s="49"/>
-      <c r="BO15" s="49"/>
-      <c r="BP15" s="40"/>
-      <c r="BQ15" s="25"/>
-      <c r="BR15" s="25"/>
-      <c r="BS15" s="26"/>
-      <c r="BT15" s="24"/>
-      <c r="BU15" s="25"/>
-      <c r="BV15" s="25"/>
-      <c r="BW15" s="25"/>
-      <c r="BX15" s="39"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="24"/>
+      <c r="BG15" s="24"/>
+      <c r="BH15" s="24"/>
+      <c r="BI15" s="23"/>
+      <c r="BJ15" s="24"/>
+      <c r="BK15" s="24"/>
+      <c r="BL15" s="24"/>
+      <c r="BM15" s="39"/>
+      <c r="BN15" s="48"/>
+      <c r="BO15" s="48"/>
+      <c r="BP15" s="39"/>
+      <c r="BQ15" s="24"/>
+      <c r="BR15" s="24"/>
+      <c r="BS15" s="25"/>
+      <c r="BT15" s="23"/>
+      <c r="BU15" s="24"/>
+      <c r="BV15" s="24"/>
+      <c r="BW15" s="24"/>
+      <c r="BX15" s="38"/>
     </row>
     <row r="16" spans="2:76" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L16" s="2">
         <v>12</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="22" t="s">
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="16"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="22" t="s">
+      <c r="V16" s="15"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="9"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="8"/>
       <c r="AH16" s="2">
         <v>12</v>
       </c>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="40"/>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="25"/>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="25"/>
-      <c r="AY16" s="25"/>
-      <c r="AZ16" s="25"/>
-      <c r="BA16" s="25"/>
-      <c r="BB16" s="39"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="24"/>
+      <c r="AW16" s="24"/>
+      <c r="AX16" s="24"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="24"/>
+      <c r="BA16" s="24"/>
+      <c r="BB16" s="38"/>
       <c r="BD16" s="2">
         <v>12</v>
       </c>
-      <c r="BE16" s="38"/>
-      <c r="BF16" s="25"/>
-      <c r="BG16" s="25"/>
-      <c r="BH16" s="25"/>
-      <c r="BI16" s="25"/>
-      <c r="BJ16" s="25"/>
-      <c r="BK16" s="25"/>
-      <c r="BL16" s="25"/>
-      <c r="BM16" s="45"/>
-      <c r="BN16" s="40"/>
-      <c r="BO16" s="40"/>
-      <c r="BP16" s="45"/>
-      <c r="BQ16" s="25"/>
-      <c r="BR16" s="25"/>
-      <c r="BS16" s="26"/>
-      <c r="BT16" s="25"/>
-      <c r="BU16" s="25"/>
-      <c r="BV16" s="25"/>
-      <c r="BW16" s="25"/>
-      <c r="BX16" s="39"/>
+      <c r="BE16" s="37"/>
+      <c r="BF16" s="24"/>
+      <c r="BG16" s="24"/>
+      <c r="BH16" s="24"/>
+      <c r="BI16" s="24"/>
+      <c r="BJ16" s="24"/>
+      <c r="BK16" s="24"/>
+      <c r="BL16" s="24"/>
+      <c r="BM16" s="44"/>
+      <c r="BN16" s="39"/>
+      <c r="BO16" s="39"/>
+      <c r="BP16" s="44"/>
+      <c r="BQ16" s="24"/>
+      <c r="BR16" s="24"/>
+      <c r="BS16" s="25"/>
+      <c r="BT16" s="24"/>
+      <c r="BU16" s="24"/>
+      <c r="BV16" s="24"/>
+      <c r="BW16" s="24"/>
+      <c r="BX16" s="38"/>
     </row>
     <row r="17" spans="3:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="L17" s="2">
         <v>13</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="31"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="30"/>
       <c r="AH17" s="2">
         <v>13</v>
       </c>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="23"/>
-      <c r="AR17" s="25"/>
-      <c r="AS17" s="25"/>
-      <c r="AT17" s="25"/>
-      <c r="AU17" s="25"/>
-      <c r="AV17" s="25"/>
-      <c r="AW17" s="25"/>
-      <c r="AX17" s="25"/>
-      <c r="AY17" s="26"/>
-      <c r="AZ17" s="25"/>
-      <c r="BA17" s="25"/>
-      <c r="BB17" s="39"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="24"/>
+      <c r="AV17" s="24"/>
+      <c r="AW17" s="24"/>
+      <c r="AX17" s="24"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="24"/>
+      <c r="BA17" s="24"/>
+      <c r="BB17" s="38"/>
       <c r="BD17" s="2">
         <v>13</v>
       </c>
-      <c r="BE17" s="38"/>
-      <c r="BF17" s="25"/>
-      <c r="BG17" s="25"/>
-      <c r="BH17" s="25"/>
-      <c r="BI17" s="25"/>
-      <c r="BJ17" s="25"/>
-      <c r="BK17" s="25"/>
-      <c r="BL17" s="25"/>
-      <c r="BM17" s="25"/>
-      <c r="BN17" s="25"/>
-      <c r="BO17" s="25"/>
-      <c r="BP17" s="25"/>
-      <c r="BQ17" s="25"/>
-      <c r="BR17" s="25"/>
-      <c r="BS17" s="25"/>
-      <c r="BT17" s="25"/>
-      <c r="BU17" s="25"/>
-      <c r="BV17" s="25"/>
-      <c r="BW17" s="25"/>
-      <c r="BX17" s="39"/>
+      <c r="BE17" s="37"/>
+      <c r="BF17" s="24"/>
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="24"/>
+      <c r="BI17" s="24"/>
+      <c r="BJ17" s="24"/>
+      <c r="BK17" s="24"/>
+      <c r="BL17" s="24"/>
+      <c r="BM17" s="24"/>
+      <c r="BN17" s="24"/>
+      <c r="BO17" s="24"/>
+      <c r="BP17" s="24"/>
+      <c r="BQ17" s="24"/>
+      <c r="BR17" s="24"/>
+      <c r="BS17" s="24"/>
+      <c r="BT17" s="24"/>
+      <c r="BU17" s="24"/>
+      <c r="BV17" s="24"/>
+      <c r="BW17" s="24"/>
+      <c r="BX17" s="38"/>
     </row>
     <row r="18" spans="3:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L18" s="2">
         <v>14</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="31"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="30"/>
       <c r="AH18" s="2">
         <v>14</v>
       </c>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="25"/>
-      <c r="AL18" s="25"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
-      <c r="AQ18" s="25"/>
-      <c r="AR18" s="25"/>
-      <c r="AS18" s="25"/>
-      <c r="AT18" s="25"/>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="25"/>
-      <c r="AW18" s="25"/>
-      <c r="AX18" s="25"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="25"/>
-      <c r="BA18" s="25"/>
-      <c r="BB18" s="39"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="24"/>
+      <c r="AS18" s="24"/>
+      <c r="AT18" s="24"/>
+      <c r="AU18" s="24"/>
+      <c r="AV18" s="24"/>
+      <c r="AW18" s="24"/>
+      <c r="AX18" s="24"/>
+      <c r="AY18" s="25"/>
+      <c r="AZ18" s="24"/>
+      <c r="BA18" s="24"/>
+      <c r="BB18" s="38"/>
       <c r="BD18" s="2">
         <v>14</v>
       </c>
-      <c r="BE18" s="38"/>
-      <c r="BF18" s="25"/>
-      <c r="BG18" s="25"/>
-      <c r="BH18" s="25"/>
-      <c r="BI18" s="25"/>
-      <c r="BJ18" s="25"/>
-      <c r="BK18" s="25"/>
-      <c r="BL18" s="25"/>
-      <c r="BM18" s="25"/>
-      <c r="BN18" s="25"/>
-      <c r="BO18" s="25"/>
-      <c r="BP18" s="25"/>
-      <c r="BQ18" s="25"/>
-      <c r="BR18" s="25"/>
-      <c r="BS18" s="25"/>
-      <c r="BT18" s="25"/>
-      <c r="BU18" s="25"/>
-      <c r="BV18" s="25"/>
-      <c r="BW18" s="25"/>
-      <c r="BX18" s="39"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="24"/>
+      <c r="BG18" s="24"/>
+      <c r="BH18" s="24"/>
+      <c r="BI18" s="24"/>
+      <c r="BJ18" s="24"/>
+      <c r="BK18" s="24"/>
+      <c r="BL18" s="24"/>
+      <c r="BM18" s="24"/>
+      <c r="BN18" s="24"/>
+      <c r="BO18" s="24"/>
+      <c r="BP18" s="24"/>
+      <c r="BQ18" s="24"/>
+      <c r="BR18" s="24"/>
+      <c r="BS18" s="24"/>
+      <c r="BT18" s="24"/>
+      <c r="BU18" s="24"/>
+      <c r="BV18" s="24"/>
+      <c r="BW18" s="24"/>
+      <c r="BX18" s="38"/>
     </row>
     <row r="19" spans="3:76" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L19" s="2">
         <v>15</v>
       </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="31"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="30"/>
       <c r="AH19" s="2">
         <v>15</v>
       </c>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
-      <c r="AQ19" s="25"/>
-      <c r="AR19" s="25"/>
-      <c r="AS19" s="25"/>
-      <c r="AT19" s="25"/>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="25"/>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="25"/>
-      <c r="AY19" s="25"/>
-      <c r="AZ19" s="25"/>
-      <c r="BA19" s="25"/>
-      <c r="BB19" s="39"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="24"/>
+      <c r="AV19" s="24"/>
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="38"/>
       <c r="BD19" s="2">
         <v>15</v>
       </c>
-      <c r="BE19" s="38"/>
-      <c r="BF19" s="25"/>
-      <c r="BG19" s="25"/>
-      <c r="BH19" s="25"/>
-      <c r="BI19" s="26"/>
-      <c r="BJ19" s="46"/>
-      <c r="BK19" s="46"/>
-      <c r="BL19" s="26"/>
-      <c r="BM19" s="25"/>
-      <c r="BN19" s="25"/>
-      <c r="BO19" s="25"/>
-      <c r="BP19" s="25"/>
-      <c r="BQ19" s="25"/>
-      <c r="BR19" s="25"/>
-      <c r="BS19" s="26"/>
-      <c r="BT19" s="25"/>
-      <c r="BU19" s="25"/>
-      <c r="BV19" s="25"/>
-      <c r="BW19" s="25"/>
-      <c r="BX19" s="39"/>
+      <c r="BE19" s="37"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="45"/>
+      <c r="BK19" s="45"/>
+      <c r="BL19" s="25"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="24"/>
+      <c r="BO19" s="24"/>
+      <c r="BP19" s="24"/>
+      <c r="BQ19" s="24"/>
+      <c r="BR19" s="24"/>
+      <c r="BS19" s="25"/>
+      <c r="BT19" s="24"/>
+      <c r="BU19" s="24"/>
+      <c r="BV19" s="24"/>
+      <c r="BW19" s="24"/>
+      <c r="BX19" s="38"/>
     </row>
     <row r="20" spans="3:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L20" s="2">
         <v>16</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="9"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="8"/>
       <c r="AH20" s="2">
         <v>16</v>
       </c>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="25"/>
-      <c r="AR20" s="24"/>
-      <c r="AS20" s="24"/>
-      <c r="AT20" s="25"/>
-      <c r="AU20" s="25"/>
-      <c r="AV20" s="25"/>
-      <c r="AW20" s="25"/>
-      <c r="AX20" s="25"/>
-      <c r="AY20" s="25"/>
-      <c r="AZ20" s="25"/>
-      <c r="BA20" s="25"/>
-      <c r="BB20" s="39"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="23"/>
+      <c r="AS20" s="23"/>
+      <c r="AT20" s="24"/>
+      <c r="AU20" s="24"/>
+      <c r="AV20" s="24"/>
+      <c r="AW20" s="24"/>
+      <c r="AX20" s="24"/>
+      <c r="AY20" s="24"/>
+      <c r="AZ20" s="24"/>
+      <c r="BA20" s="24"/>
+      <c r="BB20" s="38"/>
       <c r="BD20" s="2">
         <v>16</v>
       </c>
-      <c r="BE20" s="38"/>
-      <c r="BF20" s="25"/>
-      <c r="BG20" s="25"/>
-      <c r="BH20" s="25"/>
-      <c r="BI20" s="25"/>
-      <c r="BJ20" s="25"/>
-      <c r="BK20" s="25"/>
-      <c r="BL20" s="26"/>
-      <c r="BM20" s="25"/>
-      <c r="BN20" s="24"/>
-      <c r="BO20" s="24"/>
-      <c r="BP20" s="25"/>
-      <c r="BQ20" s="25"/>
-      <c r="BR20" s="26"/>
-      <c r="BS20" s="25"/>
-      <c r="BT20" s="25"/>
-      <c r="BU20" s="25"/>
-      <c r="BV20" s="25"/>
-      <c r="BW20" s="25"/>
-      <c r="BX20" s="39"/>
+      <c r="BE20" s="37"/>
+      <c r="BF20" s="24"/>
+      <c r="BG20" s="24"/>
+      <c r="BH20" s="24"/>
+      <c r="BI20" s="24"/>
+      <c r="BJ20" s="24"/>
+      <c r="BK20" s="24"/>
+      <c r="BL20" s="25"/>
+      <c r="BM20" s="24"/>
+      <c r="BN20" s="23"/>
+      <c r="BO20" s="23"/>
+      <c r="BP20" s="24"/>
+      <c r="BQ20" s="24"/>
+      <c r="BR20" s="25"/>
+      <c r="BS20" s="24"/>
+      <c r="BT20" s="24"/>
+      <c r="BU20" s="24"/>
+      <c r="BV20" s="24"/>
+      <c r="BW20" s="24"/>
+      <c r="BX20" s="38"/>
     </row>
     <row r="21" spans="3:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="C21" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="2">
         <v>17</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="9"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="8"/>
       <c r="AH21" s="2">
         <v>17</v>
       </c>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="25"/>
-      <c r="AR21" s="25"/>
-      <c r="AS21" s="25"/>
-      <c r="AT21" s="25"/>
-      <c r="AU21" s="25"/>
-      <c r="AV21" s="25"/>
-      <c r="AW21" s="25"/>
-      <c r="AX21" s="25"/>
-      <c r="AY21" s="25"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="25"/>
-      <c r="BB21" s="39"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="24"/>
+      <c r="AV21" s="24"/>
+      <c r="AW21" s="24"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="23"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="38"/>
       <c r="BD21" s="2">
         <v>17</v>
       </c>
-      <c r="BE21" s="38"/>
-      <c r="BF21" s="25"/>
-      <c r="BG21" s="24"/>
-      <c r="BH21" s="25"/>
-      <c r="BI21" s="25"/>
-      <c r="BJ21" s="25"/>
-      <c r="BK21" s="25"/>
-      <c r="BL21" s="25"/>
-      <c r="BM21" s="25"/>
-      <c r="BN21" s="25"/>
-      <c r="BO21" s="25"/>
-      <c r="BP21" s="25"/>
-      <c r="BQ21" s="26"/>
-      <c r="BR21" s="25"/>
-      <c r="BS21" s="25"/>
-      <c r="BT21" s="25"/>
-      <c r="BU21" s="25"/>
-      <c r="BV21" s="24"/>
-      <c r="BW21" s="25"/>
-      <c r="BX21" s="39"/>
+      <c r="BE21" s="37"/>
+      <c r="BF21" s="24"/>
+      <c r="BG21" s="23"/>
+      <c r="BH21" s="24"/>
+      <c r="BI21" s="24"/>
+      <c r="BJ21" s="24"/>
+      <c r="BK21" s="24"/>
+      <c r="BL21" s="24"/>
+      <c r="BM21" s="24"/>
+      <c r="BN21" s="24"/>
+      <c r="BO21" s="24"/>
+      <c r="BP21" s="24"/>
+      <c r="BQ21" s="25"/>
+      <c r="BR21" s="24"/>
+      <c r="BS21" s="24"/>
+      <c r="BT21" s="24"/>
+      <c r="BU21" s="24"/>
+      <c r="BV21" s="23"/>
+      <c r="BW21" s="24"/>
+      <c r="BX21" s="38"/>
     </row>
     <row r="22" spans="3:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="L22" s="2">
         <v>18</v>
       </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="9"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="8"/>
       <c r="AH22" s="2">
         <v>18</v>
       </c>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="25"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="25"/>
-      <c r="AY22" s="24"/>
-      <c r="AZ22" s="24"/>
-      <c r="BA22" s="25"/>
-      <c r="BB22" s="39"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="23"/>
+      <c r="BA22" s="24"/>
+      <c r="BB22" s="38"/>
       <c r="BD22" s="2">
         <v>18</v>
       </c>
-      <c r="BE22" s="38"/>
-      <c r="BF22" s="25"/>
-      <c r="BG22" s="24"/>
-      <c r="BH22" s="24"/>
-      <c r="BI22" s="25"/>
-      <c r="BJ22" s="25"/>
-      <c r="BK22" s="25"/>
-      <c r="BL22" s="25"/>
-      <c r="BM22" s="25"/>
-      <c r="BN22" s="25"/>
-      <c r="BO22" s="25"/>
-      <c r="BP22" s="25"/>
-      <c r="BQ22" s="25"/>
-      <c r="BR22" s="25"/>
-      <c r="BS22" s="25"/>
-      <c r="BT22" s="25"/>
-      <c r="BU22" s="24"/>
-      <c r="BV22" s="24"/>
-      <c r="BW22" s="26"/>
-      <c r="BX22" s="39"/>
+      <c r="BE22" s="37"/>
+      <c r="BF22" s="24"/>
+      <c r="BG22" s="23"/>
+      <c r="BH22" s="23"/>
+      <c r="BI22" s="24"/>
+      <c r="BJ22" s="24"/>
+      <c r="BK22" s="24"/>
+      <c r="BL22" s="24"/>
+      <c r="BM22" s="24"/>
+      <c r="BN22" s="24"/>
+      <c r="BO22" s="24"/>
+      <c r="BP22" s="24"/>
+      <c r="BQ22" s="24"/>
+      <c r="BR22" s="24"/>
+      <c r="BS22" s="24"/>
+      <c r="BT22" s="24"/>
+      <c r="BU22" s="23"/>
+      <c r="BV22" s="23"/>
+      <c r="BW22" s="25"/>
+      <c r="BX22" s="38"/>
     </row>
     <row r="23" spans="3:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L23" s="2">
         <v>19</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="9"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="8"/>
       <c r="AH23" s="2">
         <v>19</v>
       </c>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="25"/>
-      <c r="AQ23" s="25"/>
-      <c r="AR23" s="25"/>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="25"/>
-      <c r="AU23" s="23"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="25"/>
-      <c r="BB23" s="39"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="24"/>
+      <c r="AS23" s="24"/>
+      <c r="AT23" s="24"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="25"/>
+      <c r="AZ23" s="25"/>
+      <c r="BA23" s="24"/>
+      <c r="BB23" s="38"/>
       <c r="BD23" s="2">
         <v>19</v>
       </c>
-      <c r="BE23" s="38"/>
-      <c r="BF23" s="26"/>
-      <c r="BG23" s="26"/>
-      <c r="BH23" s="25"/>
-      <c r="BI23" s="25"/>
-      <c r="BJ23" s="25"/>
-      <c r="BK23" s="25"/>
-      <c r="BL23" s="25"/>
-      <c r="BM23" s="25"/>
-      <c r="BN23" s="25"/>
-      <c r="BO23" s="25"/>
-      <c r="BP23" s="25"/>
-      <c r="BQ23" s="25"/>
-      <c r="BR23" s="25"/>
-      <c r="BS23" s="25"/>
-      <c r="BT23" s="25"/>
-      <c r="BU23" s="25"/>
-      <c r="BV23" s="25"/>
-      <c r="BW23" s="26"/>
-      <c r="BX23" s="39"/>
+      <c r="BE23" s="37"/>
+      <c r="BF23" s="25"/>
+      <c r="BG23" s="25"/>
+      <c r="BH23" s="24"/>
+      <c r="BI23" s="24"/>
+      <c r="BJ23" s="24"/>
+      <c r="BK23" s="24"/>
+      <c r="BL23" s="24"/>
+      <c r="BM23" s="24"/>
+      <c r="BN23" s="24"/>
+      <c r="BO23" s="24"/>
+      <c r="BP23" s="24"/>
+      <c r="BQ23" s="24"/>
+      <c r="BR23" s="24"/>
+      <c r="BS23" s="24"/>
+      <c r="BT23" s="24"/>
+      <c r="BU23" s="24"/>
+      <c r="BV23" s="24"/>
+      <c r="BW23" s="25"/>
+      <c r="BX23" s="38"/>
     </row>
     <row r="24" spans="3:76" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="L24" s="2">
         <v>20</v>
       </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="12"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="11"/>
       <c r="AH24" s="2">
         <v>20</v>
       </c>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="42"/>
-      <c r="BB24" s="43"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="41"/>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="41"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="41"/>
+      <c r="AV24" s="41"/>
+      <c r="AW24" s="41"/>
+      <c r="AX24" s="41"/>
+      <c r="AY24" s="41"/>
+      <c r="AZ24" s="41"/>
+      <c r="BA24" s="41"/>
+      <c r="BB24" s="42"/>
       <c r="BD24" s="2">
         <v>20</v>
       </c>
-      <c r="BE24" s="41"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="42"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="42"/>
-      <c r="BL24" s="42"/>
-      <c r="BM24" s="42"/>
-      <c r="BN24" s="42"/>
-      <c r="BO24" s="42"/>
-      <c r="BP24" s="42"/>
-      <c r="BQ24" s="42"/>
-      <c r="BR24" s="42"/>
-      <c r="BS24" s="42"/>
-      <c r="BT24" s="42"/>
-      <c r="BU24" s="42"/>
-      <c r="BV24" s="42"/>
-      <c r="BW24" s="42"/>
-      <c r="BX24" s="43"/>
+      <c r="BE24" s="40"/>
+      <c r="BF24" s="41"/>
+      <c r="BG24" s="41"/>
+      <c r="BH24" s="41"/>
+      <c r="BI24" s="41"/>
+      <c r="BJ24" s="41"/>
+      <c r="BK24" s="41"/>
+      <c r="BL24" s="41"/>
+      <c r="BM24" s="41"/>
+      <c r="BN24" s="41"/>
+      <c r="BO24" s="41"/>
+      <c r="BP24" s="41"/>
+      <c r="BQ24" s="41"/>
+      <c r="BR24" s="41"/>
+      <c r="BS24" s="41"/>
+      <c r="BT24" s="41"/>
+      <c r="BU24" s="41"/>
+      <c r="BV24" s="41"/>
+      <c r="BW24" s="41"/>
+      <c r="BX24" s="42"/>
     </row>
     <row r="25" spans="3:76" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C17:K17"/>
+  <mergeCells count="4">
+    <mergeCell ref="C21:K21"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C2:K2"/>
@@ -4696,4 +4747,92 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="56"/>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C4" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:K4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>